--- a/biology/Médecine/Contrat_de_bon_usage/Contrat_de_bon_usage.xlsx
+++ b/biology/Médecine/Contrat_de_bon_usage/Contrat_de_bon_usage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le contrat de bon usage (CBU) des médicaments a pour objectifs d'améliorer et de sécuriser, au sein d'un établissement de santé, le circuit du médicament, des produits et prestations mentionnés à l'article L. 165-1[1] du code de la sécurité sociale et de garantir leur bon usage.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le contrat de bon usage (CBU) des médicaments a pour objectifs d'améliorer et de sécuriser, au sein d'un établissement de santé, le circuit du médicament, des produits et prestations mentionnés à l'article L. 165-1 du code de la sécurité sociale et de garantir leur bon usage.
 Il est conclu pour une durée de  cinq ans, entre le directeur de l’agence régionale de santé (ARS), le représentant légal de l’établissement après avis conforme de la Commission médicale d'établissement (CME) et du COMEDIMS, et de l'assurance maladie.
-En contrepartie du respect des engagements souscrits par l'établissement de santé, un taux de remboursement de 100 % par l'assurance maladie est garanti à l'établissement. (pour les spécialités pharmaceutiques et les produits et prestations mentionnés à l'article L.62-22-7[2] du code de la sécurité sociale).
-En cas de non-respect, le taux de remboursement peut être réduit entre 70 % et 100 % (article D.162-13[3] du code de la sécurité sociale).
-Ce contrat de bon usage est contrôlé par l'Observatoire des médicaments, des dispositifs médicaux et des innovations thérapeutiques (OMéDIT) sous le contrôle de l'agence régionale de santé (ARS). Dans le cas d'une inexécution manifeste des engagements souscrits, le directeur de l'ARS peut procéder à la résiliation du contrat dans les conditions prévues à l'article D. 162-15[4] du code de la sécurité sociale.
+En contrepartie du respect des engagements souscrits par l'établissement de santé, un taux de remboursement de 100 % par l'assurance maladie est garanti à l'établissement. (pour les spécialités pharmaceutiques et les produits et prestations mentionnés à l'article L.62-22-7 du code de la sécurité sociale).
+En cas de non-respect, le taux de remboursement peut être réduit entre 70 % et 100 % (article D.162-13 du code de la sécurité sociale).
+Ce contrat de bon usage est contrôlé par l'Observatoire des médicaments, des dispositifs médicaux et des innovations thérapeutiques (OMéDIT) sous le contrôle de l'agence régionale de santé (ARS). Dans le cas d'une inexécution manifeste des engagements souscrits, le directeur de l'ARS peut procéder à la résiliation du contrat dans les conditions prévues à l'article D. 162-15 du code de la sécurité sociale.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Concernant les engagements souscrits par l'établissement de santé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue deux types d'engagements au sein du contrat de bon usage des médicaments, les engagements généraux et les engagements spécifiques.
 Les engagements généraux doivent porter à minima sur les points suivants:
@@ -563,7 +577,9 @@
           <t>Amélioration et sécurisation du circuit du médicament et des produits et prestations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'établissement réalise un état des lieux de sa situation en tenant compte des résultats de la procédure de certification mise en œuvre par la Haute Autorité de santé (HAS) (extrait Article 3).
 L'établissement doit suivant le respect des référentiels de bonnes pratiques a minima effectuer les points suivants (extrait Article 3) :
@@ -599,7 +615,9 @@
           <t>L'OMEDIT</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CBU (contrat de bon usage) est maintenant devenu le CAQES (contrat d’amélioration de la qualité et de l'efficience des soins)
 L’Observatoire des médicaments, des dispositifs médicaux et des innovations thérapeutiques  a été créé en 2006 en application du décret relatif au contrat de bon usage des médicaments du 27 mars 2005  et de la circulaire du 19 janvier 2006.
@@ -611,7 +629,7 @@
 - Un comité stratégique de gouvernance qui est l’instance assurant l’organisation et le fonctionnement de l’OMEDIT. Il est composé des représentants d’établissements de santé et des institutions telles que l’assurance maladie ou l’ARS.  Il a la charge de définir les axes de travail de l’OMEDIT et de s’assurer de la mise en œuvre de ses travaux. Ce comité doit se réunir au minimum trois fois par an et est dirigé par le directeur de l’offre sanitaire et médico-sociale de l’ARS.
 - À partir des projets de travaux fixés par le comité de gouvernance, des commissions techniques sont organisées avec des représentants des différentes catégories de professionnels (médecins, pharmaciens, infirmiers…). Ce sont des groupes de travail qui se réunissent autour de diverses thématiques telles que la gériatrie ou encore les dispositifs médicaux. Les commissions techniques ont notamment pour missions de donner leur avis sur l'utilisation des produits de santé, d’analyser les données recueillies et de formuler des recommandations. Elles doivent se réunir au moins une fois par an et sont dirigées par un groupe de pilotage composé au minimum d’un médecin et d’un pharmacien.
 - Un comité scientifique : il développe les méthodes et outils d’évaluation qui permettent d’améliorer les pratiques des professionnels. Ces éléments sont transmis au comité de gouvernance de l’OMEDIT.  Il est composé des responsables de chaque commission technique. Les membres du comité scientifique doivent respecter les principes d’indépendance, d’impartialité et de transparence et doivent, par conséquent, déclarer leurs liens et conflits d’intérêt.
-Le financement des OMEDIT est prévu par l’article L.162-22-13 du code de sécurité sociale[5] qui prévoit une dotation pour les missions d’intérêt général et pour aider à la contractualisation des établissements de santé. 
+Le financement des OMEDIT est prévu par l’article L.162-22-13 du code de sécurité sociale qui prévoit une dotation pour les missions d’intérêt général et pour aider à la contractualisation des établissements de santé. 
 </t>
         </is>
       </c>
@@ -640,11 +658,13 @@
           <t>Cadre légal</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décret no 2005-1023 du 24 août 2005 relatif au contrat de bon usage des médicaments et des produits et prestations mentionné à l’article L. 162-22-7 du code de la sécurité sociale[6].
-Décret n° 2008-1121 du 31 octobre 2008 relatif au contrat de bon usage des médicaments et des produits et prestations prévu à l'article L.162-22-7 du Code de la sécurité sociale[7].
-Circulaire n° DHOS/E2/DSS/1C/2006/30 du 19 janvier 2006[8]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décret no 2005-1023 du 24 août 2005 relatif au contrat de bon usage des médicaments et des produits et prestations mentionné à l’article L. 162-22-7 du code de la sécurité sociale.
+Décret n° 2008-1121 du 31 octobre 2008 relatif au contrat de bon usage des médicaments et des produits et prestations prévu à l'article L.162-22-7 du Code de la sécurité sociale.
+Circulaire n° DHOS/E2/DSS/1C/2006/30 du 19 janvier 2006
 </t>
         </is>
       </c>
